--- a/Mifos Automation Excels/Client/2681-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-lATEREPAY-RunPERon15FEB-AccCL15FEB-DISTR2on20thFEB-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2681-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-lATEREPAY-RunPERon15FEB-AccCL15FEB-DISTR2on20thFEB-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="726" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="726" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
